--- a/EngenhariaSoftware/Requisitos.xlsx
+++ b/EngenhariaSoftware/Requisitos.xlsx
@@ -12,14 +12,14 @@
     <workbookView xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035"/>
   </bookViews>
   <sheets>
-    <sheet name="Requisitos do sistema SICA" sheetId="1" r:id="rId1"/>
+    <sheet name="Requisitos do sistema D2VS" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="90">
   <si>
     <t>CÓDIGO</t>
   </si>
@@ -214,12 +214,6 @@
   </si>
   <si>
     <t>Essa funcionalidade permite ao perfil cadastrado no sistema ter acesso as suas funcionalidades</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>Colunas1</t>
   </si>
   <si>
     <t>Essa funcionalidade permite ao autônomo editar as informações do seu perfil.</t>
@@ -301,17 +295,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -337,7 +324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -354,44 +341,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="8">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -427,8 +398,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="8"/>
-      <tableStyleElement type="headerRow" dxfId="7"/>
+      <tableStyleElement type="wholeTable" dxfId="7"/>
+      <tableStyleElement type="headerRow" dxfId="6"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -443,14 +414,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="A1:E29" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E29"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="CÓDIGO" dataDxfId="4"/>
-    <tableColumn id="2" name="CASO DE USO" dataDxfId="3"/>
-    <tableColumn id="3" name="DESCRIÇÃO" dataDxfId="2"/>
-    <tableColumn id="4" name="AUTOR" dataDxfId="1"/>
-    <tableColumn id="5" name="Colunas1" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="A1:D28" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:D28"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="CÓDIGO" dataDxfId="3"/>
+    <tableColumn id="2" name="CASO DE USO" dataDxfId="2"/>
+    <tableColumn id="3" name="DESCRIÇÃO" dataDxfId="1"/>
+    <tableColumn id="4" name="AUTOR" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -743,19 +713,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" style="2" customWidth="1"/>
     <col min="2" max="2" width="39.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="103.140625" style="4" customWidth="1"/>
     <col min="4" max="4" width="24.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -768,433 +740,394 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C3" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D3" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D5" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B6" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C6" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D6" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B7" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C7" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D7" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    </row>
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D8" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C9" s="7" t="s">
         <v>52</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="2" t="s">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="2" t="s">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="2" t="s">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="2" t="s">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>57</v>
+    </row>
+    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>84</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="9" t="s">
+    </row>
+    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="C19" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" s="8" t="s">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="2" t="s">
+    </row>
+    <row r="21" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="13" t="s">
         <v>71</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B24" s="10" t="s">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="D24" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="6"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C25" s="9" t="s">
+      <c r="B25" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E27" s="6"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>43</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="2"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="3"/>
       <c r="D30" s="2"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="2"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
